--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-1-Verificacao de Projeto.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-1-Verificacao de Projeto.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7527B9C-B32C-41EA-B8C3-3E687271C8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E5FB3-F4DF-4705-8FB0-89D47458D667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="137">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1027,6 +1027,18 @@
   </si>
   <si>
     <t>Web Design</t>
+  </si>
+  <si>
+    <t>Aluisio Santos</t>
+  </si>
+  <si>
+    <t>Foi definido, porém será testado na fase de construção</t>
+  </si>
+  <si>
+    <t>Foram criados dois guias de implementação, pois o Iago está com o front-end e o Rogério com a parte de beck-end</t>
+  </si>
+  <si>
+    <t>Será testado na fase de construção</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1565,7 @@
                   <c:v>0.92592592592592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2057,9 +2069,9 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21" t="e">
+      <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2096,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2818,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2847,14 +2859,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28">
+        <v>44181</v>
+      </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2862,7 +2876,9 @@
         <v>26</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
       </c>
@@ -2909,7 +2925,9 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
@@ -2931,7 +2949,9 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
@@ -2953,7 +2973,9 @@
       <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -2965,7 +2987,9 @@
       <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -2977,7 +3001,9 @@
       <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -2989,7 +3015,9 @@
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -3011,7 +3039,9 @@
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -3033,7 +3063,9 @@
       <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -3057,8 +3089,12 @@
       <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -3069,7 +3105,9 @@
       <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -3081,7 +3119,9 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -3093,7 +3133,9 @@
       <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -3105,7 +3147,9 @@
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -3119,7 +3163,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="75">
       <c r="A25" s="33"/>
       <c r="B25" s="24">
         <v>15</v>
@@ -3127,8 +3171,12 @@
       <c r="C25" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="30">
@@ -3139,7 +3187,9 @@
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
@@ -3163,8 +3213,12 @@
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="30">
@@ -3175,7 +3229,9 @@
       <c r="C29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
@@ -3187,7 +3243,9 @@
       <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -3211,7 +3269,9 @@
       <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
@@ -3223,7 +3283,9 @@
       <c r="C33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
@@ -3247,7 +3309,9 @@
       <c r="C35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -3259,7 +3323,9 @@
       <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -3271,7 +3337,9 @@
       <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
@@ -3283,7 +3351,9 @@
       <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -3295,7 +3365,9 @@
       <c r="C39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
@@ -3307,7 +3379,9 @@
       <c r="C40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -3331,7 +3405,9 @@
       <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -3343,7 +3419,9 @@
       <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
@@ -3355,7 +3433,9 @@
       <c r="C44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
@@ -3377,7 +3457,9 @@
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -3389,7 +3471,9 @@
       <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
@@ -3401,7 +3485,9 @@
       <c r="C48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
@@ -4085,17 +4171,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4752,11 +4838,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4764,6 +4845,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">
